--- a/scale_aging.xlsx
+++ b/scale_aging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/Grad School /SIA/Scales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C156DAE-C272-6E41-B40B-79D31AFAE0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD8A2D1-4551-1B4C-B700-F2985CE67108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="27640" windowHeight="15820" activeTab="5" xr2:uid="{E71BB1B5-6F5B-E24F-8441-3A2A1F325322}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="27640" windowHeight="15820" activeTab="8" xr2:uid="{E71BB1B5-6F5B-E24F-8441-3A2A1F325322}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="16">
   <si>
     <t>sample_date</t>
   </si>
@@ -27837,7 +27837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD37912F-DF73-224B-AEB1-C0E30C4B46FB}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
@@ -33397,10 +33397,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127906F7-253F-0546-802D-C243033B6720}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33428,6 +33428,3686 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>25</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>27</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>35</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>37</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>25</v>
+      </c>
+      <c r="E79">
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>47</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>47</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>47</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>47</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>47</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>47</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>47</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>47</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>47</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>47</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>47</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>47</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>47</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>47</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>47</v>
+      </c>
+      <c r="E97">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>47</v>
+      </c>
+      <c r="E98">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>47</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>47</v>
+      </c>
+      <c r="E100">
+        <v>19</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>47</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>47</v>
+      </c>
+      <c r="E102">
+        <v>21</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>47</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>47</v>
+      </c>
+      <c r="E104">
+        <v>23</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>47</v>
+      </c>
+      <c r="E105">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>47</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>47</v>
+      </c>
+      <c r="E107">
+        <v>26</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>47</v>
+      </c>
+      <c r="E108">
+        <v>27</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>47</v>
+      </c>
+      <c r="E109">
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>47</v>
+      </c>
+      <c r="E110">
+        <v>29</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>47</v>
+      </c>
+      <c r="E111">
+        <v>30</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>47</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>47</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>47</v>
+      </c>
+      <c r="E114">
+        <v>33</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>47</v>
+      </c>
+      <c r="E115">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>47</v>
+      </c>
+      <c r="E116">
+        <v>35</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>47</v>
+      </c>
+      <c r="E117">
+        <v>36</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>47</v>
+      </c>
+      <c r="E118">
+        <v>37</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>47</v>
+      </c>
+      <c r="E119">
+        <v>38</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>47</v>
+      </c>
+      <c r="E120">
+        <v>39</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>47</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>48</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>48</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>48</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>48</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>48</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>48</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>48</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>48</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>48</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>48</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>48</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>48</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137">
+        <v>48</v>
+      </c>
+      <c r="E137">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>48</v>
+      </c>
+      <c r="E138">
+        <v>17</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>48</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140">
+        <v>48</v>
+      </c>
+      <c r="E140">
+        <v>19</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>48</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142">
+        <v>48</v>
+      </c>
+      <c r="E142">
+        <v>21</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143">
+        <v>48</v>
+      </c>
+      <c r="E143">
+        <v>22</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>48</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>48</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>48</v>
+      </c>
+      <c r="E147">
+        <v>26</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>48</v>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+      <c r="E149">
+        <v>28</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>48</v>
+      </c>
+      <c r="E150">
+        <v>29</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>48</v>
+      </c>
+      <c r="E151">
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>48</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>48</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>48</v>
+      </c>
+      <c r="E155">
+        <v>34</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>48</v>
+      </c>
+      <c r="E156">
+        <v>35</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>48</v>
+      </c>
+      <c r="E157">
+        <v>36</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>48</v>
+      </c>
+      <c r="E158">
+        <v>37</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159">
+        <v>48</v>
+      </c>
+      <c r="E159">
+        <v>38</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>48</v>
+      </c>
+      <c r="E160">
+        <v>39</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>31602</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>48</v>
+      </c>
+      <c r="E161">
+        <v>40</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33435,10 +37115,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F6D44-AF9F-4344-8577-A660E4C0DCDB}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33464,6 +37144,3686 @@
       </c>
       <c r="G1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>37</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>37</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>37</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>37</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>37</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>37</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>37</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>37</v>
+      </c>
+      <c r="E58">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>37</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>37</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>37</v>
+      </c>
+      <c r="E66">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>37</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>27</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>37</v>
+      </c>
+      <c r="E76">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <v>37</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>30868</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>34</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>34</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>34</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>34</v>
+      </c>
+      <c r="E98">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>34</v>
+      </c>
+      <c r="E100">
+        <v>19</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <v>21</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>34</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>23</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>34</v>
+      </c>
+      <c r="E105">
+        <v>24</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>34</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>34</v>
+      </c>
+      <c r="E107">
+        <v>26</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>27</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>34</v>
+      </c>
+      <c r="E109">
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>29</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>30</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>34</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>34</v>
+      </c>
+      <c r="E114">
+        <v>33</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>34</v>
+      </c>
+      <c r="E115">
+        <v>34</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>35</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>36</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>37</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>38</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>39</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>35</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>35</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>35</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>35</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>35</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>35</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>35</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>35</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>35</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>35</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>35</v>
+      </c>
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>35</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>35</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>35</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137">
+        <v>35</v>
+      </c>
+      <c r="E137">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>35</v>
+      </c>
+      <c r="E138">
+        <v>17</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140">
+        <v>35</v>
+      </c>
+      <c r="E140">
+        <v>19</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>35</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142">
+        <v>35</v>
+      </c>
+      <c r="E142">
+        <v>21</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143">
+        <v>35</v>
+      </c>
+      <c r="E143">
+        <v>22</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>35</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>35</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>35</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>35</v>
+      </c>
+      <c r="E147">
+        <v>26</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>35</v>
+      </c>
+      <c r="E148">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>35</v>
+      </c>
+      <c r="E149">
+        <v>28</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>35</v>
+      </c>
+      <c r="E150">
+        <v>29</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>35</v>
+      </c>
+      <c r="E151">
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>35</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>35</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>35</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>35</v>
+      </c>
+      <c r="E155">
+        <v>34</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>35</v>
+      </c>
+      <c r="E156">
+        <v>35</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>35</v>
+      </c>
+      <c r="E157">
+        <v>36</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>35</v>
+      </c>
+      <c r="E158">
+        <v>37</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159">
+        <v>35</v>
+      </c>
+      <c r="E159">
+        <v>38</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>35</v>
+      </c>
+      <c r="E160">
+        <v>39</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>30502</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>35</v>
+      </c>
+      <c r="E161">
+        <v>40</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -33475,7 +40835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA7AD01-BD12-0A40-AE96-F03D79CBA6B1}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
